--- a/data/trans_bre/P6902-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 16,19</t>
+          <t>-17,34; 15,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 37,15</t>
+          <t>2,5; 35,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 16,63</t>
+          <t>-20,62; 15,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 1,74</t>
+          <t>-20,09; 1,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 22,95</t>
+          <t>-21,19; 22,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 74,13</t>
+          <t>3,74; 66,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 25,1</t>
+          <t>-25,58; 24,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 1,56</t>
+          <t>-20,91; 1,73</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 34,37</t>
+          <t>-8,23; 34,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 18,24</t>
+          <t>-33,36; 17,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 40,05</t>
+          <t>-8,47; 38,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 11,51</t>
+          <t>-18,67; 12,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 84,31</t>
+          <t>-11,98; 83,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 30,91</t>
+          <t>-44,12; 29,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 88,54</t>
+          <t>-10,84; 92,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 15,67</t>
+          <t>-20,22; 16,53</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 6,44</t>
+          <t>-45,62; 8,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 28,49</t>
+          <t>-13,64; 30,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 63,22</t>
+          <t>-2,52; 63,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 29,49</t>
+          <t>-18,38; 28,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-86,77; 15,3</t>
+          <t>-86,47; 19,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 84,35</t>
+          <t>-30,68; 93,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 229,25</t>
+          <t>-3,72; 239,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 83,9</t>
+          <t>-32,53; 76,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 34,04</t>
+          <t>1,09; 33,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 21,14</t>
+          <t>-11,11; 20,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 29,68</t>
+          <t>1,88; 29,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 22,07</t>
+          <t>-1,97; 24,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 121,1</t>
+          <t>2,51; 118,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 60,37</t>
+          <t>-22,77; 53,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 81,4</t>
+          <t>3,46; 81,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 48,0</t>
+          <t>-3,32; 51,64</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 19,74</t>
+          <t>-12,03; 19,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 45,44</t>
+          <t>2,39; 44,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 33,72</t>
+          <t>-1,17; 33,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 13,09</t>
+          <t>-39,52; 13,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,3; 121,71</t>
+          <t>-37,69; 116,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 279,41</t>
+          <t>3,4; 244,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 192,31</t>
+          <t>-4,59; 192,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-65,82; 32,0</t>
+          <t>-65,91; 34,26</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,87</t>
+          <t>0,27; 17,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 18,99</t>
+          <t>0,92; 19,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 25,2</t>
+          <t>8,18; 26,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 8,18</t>
+          <t>-20,93; 7,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 39,45</t>
+          <t>0,72; 43,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 44,28</t>
+          <t>1,92; 44,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,79; 64,0</t>
+          <t>17,1; 65,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 13,51</t>
+          <t>-32,33; 13,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
